--- a/www/IndicatorsPerCountry/Thailand_GDPperCapita_TerritorialRef_1946_2012_CCode_764.xlsx
+++ b/www/IndicatorsPerCountry/Thailand_GDPperCapita_TerritorialRef_1946_2012_CCode_764.xlsx
@@ -267,13 +267,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Thailand_GDPperCapita_TerritorialRef_1946_2012_CCode_764.xlsx
+++ b/www/IndicatorsPerCountry/Thailand_GDPperCapita_TerritorialRef_1946_2012_CCode_764.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="93">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,208 +36,226 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>570</t>
+    <t>909</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>608</t>
-  </si>
-  <si>
-    <t>784</t>
-  </si>
-  <si>
-    <t>841</t>
-  </si>
-  <si>
-    <t>793</t>
-  </si>
-  <si>
-    <t>826</t>
-  </si>
-  <si>
-    <t>817</t>
-  </si>
-  <si>
-    <t>849</t>
-  </si>
-  <si>
-    <t>869</t>
-  </si>
-  <si>
-    <t>935</t>
-  </si>
-  <si>
-    <t>898</t>
-  </si>
-  <si>
-    <t>945</t>
-  </si>
-  <si>
-    <t>930</t>
-  </si>
-  <si>
-    <t>910</t>
-  </si>
-  <si>
-    <t>914</t>
-  </si>
-  <si>
-    <t>992</t>
-  </si>
-  <si>
-    <t>1078</t>
-  </si>
-  <si>
-    <t>1100</t>
-  </si>
-  <si>
-    <t>1149</t>
-  </si>
-  <si>
-    <t>1205</t>
-  </si>
-  <si>
-    <t>1249</t>
-  </si>
-  <si>
-    <t>1308</t>
-  </si>
-  <si>
-    <t>1412</t>
-  </si>
-  <si>
-    <t>1486</t>
-  </si>
-  <si>
-    <t>1561</t>
-  </si>
-  <si>
-    <t>1636</t>
-  </si>
-  <si>
-    <t>1694</t>
-  </si>
-  <si>
-    <t>1725</t>
-  </si>
-  <si>
-    <t>1748</t>
-  </si>
-  <si>
-    <t>1874</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1959</t>
-  </si>
-  <si>
-    <t>2091</t>
-  </si>
-  <si>
-    <t>2249</t>
-  </si>
-  <si>
-    <t>2422</t>
-  </si>
-  <si>
-    <t>2496</t>
-  </si>
-  <si>
-    <t>2554</t>
-  </si>
-  <si>
-    <t>2654</t>
-  </si>
-  <si>
-    <t>2745</t>
-  </si>
-  <si>
-    <t>2847</t>
-  </si>
-  <si>
-    <t>2961</t>
-  </si>
-  <si>
-    <t>3050</t>
-  </si>
-  <si>
-    <t>3170</t>
-  </si>
-  <si>
-    <t>3421</t>
-  </si>
-  <si>
-    <t>3820</t>
-  </si>
-  <si>
-    <t>4225</t>
-  </si>
-  <si>
-    <t>4633.10138718</t>
-  </si>
-  <si>
-    <t>4956.58461774</t>
-  </si>
-  <si>
-    <t>5344.01112142</t>
-  </si>
-  <si>
-    <t>5733.81576108</t>
-  </si>
-  <si>
-    <t>6115.46901388</t>
-  </si>
-  <si>
-    <t>6531.25838531</t>
-  </si>
-  <si>
-    <t>6819.51085421</t>
-  </si>
-  <si>
-    <t>6558.74533737</t>
-  </si>
-  <si>
-    <t>5994.07308001</t>
-  </si>
-  <si>
-    <t>6212.39764494</t>
-  </si>
-  <si>
-    <t>6440.14912057</t>
-  </si>
-  <si>
-    <t>6611.34525819</t>
-  </si>
-  <si>
-    <t>6967.34442253</t>
-  </si>
-  <si>
-    <t>7412.25222664</t>
-  </si>
-  <si>
-    <t>7823.94097575</t>
-  </si>
-  <si>
-    <t>8093.33593626</t>
-  </si>
-  <si>
-    <t>8434.92024814</t>
-  </si>
-  <si>
-    <t>8835.17143095</t>
-  </si>
-  <si>
-    <t>8922.89043482</t>
-  </si>
-  <si>
-    <t>8768.26204343</t>
-  </si>
-  <si>
-    <t>9372.20940704</t>
+    <t>969</t>
+  </si>
+  <si>
+    <t>1250</t>
+  </si>
+  <si>
+    <t>1341</t>
+  </si>
+  <si>
+    <t>1264</t>
+  </si>
+  <si>
+    <t>1317</t>
+  </si>
+  <si>
+    <t>1302</t>
+  </si>
+  <si>
+    <t>1353</t>
+  </si>
+  <si>
+    <t>1385</t>
+  </si>
+  <si>
+    <t>1490</t>
+  </si>
+  <si>
+    <t>1431</t>
+  </si>
+  <si>
+    <t>1506</t>
+  </si>
+  <si>
+    <t>1482</t>
+  </si>
+  <si>
+    <t>1451</t>
+  </si>
+  <si>
+    <t>1457</t>
+  </si>
+  <si>
+    <t>1581</t>
+  </si>
+  <si>
+    <t>1718</t>
+  </si>
+  <si>
+    <t>1753</t>
+  </si>
+  <si>
+    <t>1831</t>
+  </si>
+  <si>
+    <t>1921</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>2085</t>
+  </si>
+  <si>
+    <t>2251</t>
+  </si>
+  <si>
+    <t>2369</t>
+  </si>
+  <si>
+    <t>2488</t>
+  </si>
+  <si>
+    <t>2608</t>
+  </si>
+  <si>
+    <t>2700</t>
+  </si>
+  <si>
+    <t>2750</t>
+  </si>
+  <si>
+    <t>2786</t>
+  </si>
+  <si>
+    <t>2987</t>
+  </si>
+  <si>
+    <t>3045</t>
+  </si>
+  <si>
+    <t>3123</t>
+  </si>
+  <si>
+    <t>3333</t>
+  </si>
+  <si>
+    <t>3585</t>
+  </si>
+  <si>
+    <t>3861</t>
+  </si>
+  <si>
+    <t>3979</t>
+  </si>
+  <si>
+    <t>4071</t>
+  </si>
+  <si>
+    <t>4230</t>
+  </si>
+  <si>
+    <t>4375</t>
+  </si>
+  <si>
+    <t>4538</t>
+  </si>
+  <si>
+    <t>4720</t>
+  </si>
+  <si>
+    <t>4862</t>
+  </si>
+  <si>
+    <t>5053</t>
+  </si>
+  <si>
+    <t>5453</t>
+  </si>
+  <si>
+    <t>6089</t>
+  </si>
+  <si>
+    <t>6735</t>
+  </si>
+  <si>
+    <t>7385</t>
+  </si>
+  <si>
+    <t>7849.74481802388</t>
+  </si>
+  <si>
+    <t>8409.0209422082</t>
+  </si>
+  <si>
+    <t>8964.29215998945</t>
+  </si>
+  <si>
+    <t>9499.51752452374</t>
+  </si>
+  <si>
+    <t>10080.2082631763</t>
+  </si>
+  <si>
+    <t>10458.3586098259</t>
+  </si>
+  <si>
+    <t>9995.61821964787</t>
+  </si>
+  <si>
+    <t>9077.7477967745</t>
+  </si>
+  <si>
+    <t>9347.0609300166</t>
+  </si>
+  <si>
+    <t>9627.10431781556</t>
+  </si>
+  <si>
+    <t>9818.72053622492</t>
+  </si>
+  <si>
+    <t>10276.398308003</t>
+  </si>
+  <si>
+    <t>10868.8355383604</t>
+  </si>
+  <si>
+    <t>11408.3257048843</t>
+  </si>
+  <si>
+    <t>11742.1280936609</t>
+  </si>
+  <si>
+    <t>12180.7113589908</t>
+  </si>
+  <si>
+    <t>12694.7146347803</t>
+  </si>
+  <si>
+    <t>12768.1290769284</t>
+  </si>
+  <si>
+    <t>12543.3986128863</t>
+  </si>
+  <si>
+    <t>13343.546749821</t>
+  </si>
+  <si>
+    <t>13318</t>
+  </si>
+  <si>
+    <t>14227</t>
+  </si>
+  <si>
+    <t>14562</t>
+  </si>
+  <si>
+    <t>14642</t>
+  </si>
+  <si>
+    <t>15020</t>
+  </si>
+  <si>
+    <t>15454</t>
   </si>
   <si>
     <t>Description</t>
@@ -3588,6 +3606,108 @@
         <v>74</v>
       </c>
     </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>764.0</v>
+      </c>
+      <c r="B193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C193" t="s">
+        <v>6</v>
+      </c>
+      <c r="D193" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E193" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>764.0</v>
+      </c>
+      <c r="B194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194" t="s">
+        <v>6</v>
+      </c>
+      <c r="D194" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E194" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>764.0</v>
+      </c>
+      <c r="B195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C195" t="s">
+        <v>6</v>
+      </c>
+      <c r="D195" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E195" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>764.0</v>
+      </c>
+      <c r="B196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C196" t="s">
+        <v>6</v>
+      </c>
+      <c r="D196" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E196" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>764.0</v>
+      </c>
+      <c r="B197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C197" t="s">
+        <v>6</v>
+      </c>
+      <c r="D197" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E197" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>764.0</v>
+      </c>
+      <c r="B198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C198" t="s">
+        <v>6</v>
+      </c>
+      <c r="D198" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E198" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -3603,50 +3723,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
